--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1821.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1821.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.276953551979897</v>
+        <v>0.9812178611755371</v>
       </c>
       <c r="B1">
-        <v>2.179619743900004</v>
+        <v>1.122846484184265</v>
       </c>
       <c r="C1">
-        <v>2.67661277669277</v>
+        <v>5.326637744903564</v>
       </c>
       <c r="D1">
-        <v>3.107547031136678</v>
+        <v>1.58436119556427</v>
       </c>
       <c r="E1">
-        <v>2.476925865392496</v>
+        <v>0.9647256135940552</v>
       </c>
     </row>
   </sheetData>
